--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193821.3346318363</v>
+        <v>-196368.4295663142</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.9617115804236</v>
+        <v>2.781837962661234</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>3.675583173002571</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>68.36045235641292</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>325.823282310907</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>139.7003843423488</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.94174219837174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>170.0022832520862</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>177.6639791994872</v>
+        <v>4.792004777350752</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>42.88377774584217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>56.0085546485596</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>132.6315337216692</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.8153769208888</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>100.1755269486893</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>37.40501058442985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>87.82057320600219</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>75.9678879306182</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.8299898147634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.207068174442177</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>119.6760079449695</v>
+        <v>67.00771475394369</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>273.2361318359318</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>149.9095691544925</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.379137212821</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="C2" t="n">
-        <v>1277.379137212821</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="D2" t="n">
-        <v>919.1134386060701</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3251860078258</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1277.379137212821</v>
+        <v>915.2061805858441</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4413,16 +4413,16 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.7634789947318</v>
+        <v>1086.707851840028</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1045.204522968502</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>1045.204522968502</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="W4" t="n">
-        <v>1045.204522968502</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="X4" t="n">
-        <v>1045.204522968502</v>
+        <v>1268.356316670268</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.4119438249716</v>
+        <v>1268.356316670268</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1471.210842731384</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C5" t="n">
-        <v>1471.210842731384</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D5" t="n">
-        <v>1471.210842731384</v>
+        <v>777.8138119782282</v>
       </c>
       <c r="E5" t="n">
-        <v>1085.422590133139</v>
+        <v>392.0255593799839</v>
       </c>
       <c r="F5" t="n">
-        <v>674.4366853435317</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>258.7319350678206</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795505</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.810682795505</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919907</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.137147448514</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="C7" t="n">
-        <v>825.137147448514</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
         <v>473.8272960668249</v>
@@ -4720,55 +4720,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1362.143235557669</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1362.143235557669</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>1362.143235557669</v>
       </c>
       <c r="W7" t="n">
-        <v>825.137147448514</v>
+        <v>1072.726065520708</v>
       </c>
       <c r="X7" t="n">
-        <v>825.137147448514</v>
+        <v>844.7365146226908</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.137147448514</v>
+        <v>623.9439354791607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2185.045504370168</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1816.082987429756</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1457.817288823006</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>1072.029036224761</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="F8" t="n">
-        <v>661.0431314351538</v>
+        <v>528.4218742137291</v>
       </c>
       <c r="G8" t="n">
-        <v>245.9706812801502</v>
+        <v>113.3494240587256</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410101</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2571.64534443429</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.4387267498528</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981149</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>859.0871915800925</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.0871915800925</v>
+        <v>396.0736748448163</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>369.499740389278</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>506.2737913123336</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.273679552237</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.58919134635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.172021309389</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2358.255433877228</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2138.653968900169</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2370.227843246303</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2150.626378269244</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855604</v>
+        <v>1861.551151613442</v>
       </c>
       <c r="V22" t="n">
-        <v>1905.631426649717</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.214256612757</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.224705714739</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>763.7541388327643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>613.6374994204285</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>465.7244058380354</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>318.834458340125</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2326.07822707019</v>
+        <v>2379.278523222742</v>
       </c>
       <c r="T28" t="n">
-        <v>2106.476762093131</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921335</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>199.7516311504062</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.3292595429732</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.27622707563</v>
+        <v>379.7089968741383</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.89260457059834</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.61858572568036</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>186.0089474405548</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>93.2057127956424</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>105.0583980710264</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>164.3170701178267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>61.35027805667508</v>
+        <v>114.0185712477009</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>13.28686650065919</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>136.2749052347516</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991061</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86240.48433454279</v>
+        <v>86240.48433454285</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26433,25 +26433,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756606</v>
-      </c>
       <c r="J4" t="n">
+        <v>9337.200356756643</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>9337.200356756644</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1019209.073747409</v>
+        <v>-1019430.205061384</v>
       </c>
       <c r="C6" t="n">
-        <v>78226.61756715924</v>
+        <v>78226.61756715926</v>
       </c>
       <c r="D6" t="n">
-        <v>-81194.65243073265</v>
+        <v>-81194.65243073305</v>
       </c>
       <c r="E6" t="n">
-        <v>-133192.2171042671</v>
+        <v>-133226.9550297024</v>
       </c>
       <c r="F6" t="n">
-        <v>192220.2447030887</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="G6" t="n">
-        <v>192220.2447030887</v>
+        <v>192185.5067776529</v>
       </c>
       <c r="H6" t="n">
-        <v>192220.2447030884</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="I6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="J6" t="n">
-        <v>24615.06689310582</v>
+        <v>24580.32896767036</v>
       </c>
       <c r="K6" t="n">
-        <v>192220.2447030887</v>
+        <v>192185.5067776529</v>
       </c>
       <c r="L6" t="n">
-        <v>143926.2746948979</v>
+        <v>143891.5367694621</v>
       </c>
       <c r="M6" t="n">
-        <v>107165.2167675767</v>
+        <v>107130.4788421412</v>
       </c>
       <c r="N6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776529</v>
       </c>
       <c r="O6" t="n">
-        <v>192220.2447030886</v>
+        <v>192185.506777653</v>
       </c>
       <c r="P6" t="n">
-        <v>167970.7702317088</v>
+        <v>167970.7702317089</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.40458212050737</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3.74710381925405</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163.5712379256253</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>217.8667017647877</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>81.05276343080448</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>161.3181682200565</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.67373081984061</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>50.74641274512578</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>116.9437851878333</v>
+        <v>289.8157596099697</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>182.825877643195</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>162.5760987035352</v>
       </c>
     </row>
     <row r="11">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>403.3065760821439</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34781,7 +34781,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,10 +34790,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882566</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>449.4311602739386</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159144</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4651371077849</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
